--- a/Empresa/DatosE.xlsx
+++ b/Empresa/DatosE.xlsx
@@ -2001,7 +2001,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>8809.0</t>
+          <t>170.0</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2760.0</t>
+          <t>170.0</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>40020.0</t>
+          <t>2040.0</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>400200.0</t>
+          <t>20400.0</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>3042.9</t>
+          <t>187.425</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>293480.0</t>
+          <t>14960.0</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>17.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>4830.0</t>
+          <t>204.0</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>5133.6</t>
+          <t>244.8</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" s="1" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>6789.6</t>
+          <t>244.8</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>7590.0</t>
+          <t>340.0</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>8027000.0</t>
+          <t>170000.0</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>208437.5</t>
+          <t>10625.0</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>660330.0</t>
+          <t>33660.0</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>76738.35</t>
+          <t>3911.7</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>16008.0</t>
+          <t>816.0</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>1120560.0</t>
+          <t>57120.0</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>15674.5</t>
+          <t>799.0</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>96048.0</t>
+          <t>4896.0</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>1248624.0</t>
+          <t>63648.0</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>136068.0</t>
+          <t>6936.0</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>131155.2</t>
+          <t>8078.4</t>
         </is>
       </c>
     </row>
